--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/53.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/53.xlsx
@@ -479,13 +479,13 @@
         <v>-6.890243454977758</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.114719936917522</v>
+        <v>-9.15665458291957</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.723329444592653</v>
+        <v>-1.738149931409487</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.775704663779988</v>
+        <v>-7.851090143542647</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-6.438125737262832</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.766939187583789</v>
+        <v>-9.802000374593932</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.733410517780782</v>
+        <v>-1.743439221757544</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.629136333466865</v>
+        <v>-7.685132112720927</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.922084857762221</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.313778492677</v>
+        <v>-10.35806975319056</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.732703533427329</v>
+        <v>-1.744630621316141</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.432712513932449</v>
+        <v>-7.487372878296655</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-5.390943728032153</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.96059062226964</v>
+        <v>-11.00154334555856</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.733345056266573</v>
+        <v>-1.743085729580817</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.010328639652682</v>
+        <v>-7.059450959914838</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-4.854038996530041</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.5771333476922</v>
+        <v>-11.62749943672432</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.786381975078406</v>
+        <v>-1.795886986941499</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.76144396263147</v>
+        <v>-6.808340591410532</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-4.336965959799031</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.37489972904994</v>
+        <v>-12.42266044981656</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.573972453774242</v>
+        <v>-1.586816002861975</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.382997856688536</v>
+        <v>-6.427825901618606</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-3.856729544694181</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.01554538400412</v>
+        <v>-13.06465461196344</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.47998281167349</v>
+        <v>-1.491818253442411</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.720108379206262</v>
+        <v>-5.775645927860864</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-3.430148192733121</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.63015044860611</v>
+        <v>-13.68098786054053</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.367703222502848</v>
+        <v>-1.381803632663386</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.323267587770703</v>
+        <v>-5.367558848284262</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-3.066030034034204</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.26434159825932</v>
+        <v>-14.31829497827007</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.291885696746412</v>
+        <v>-1.30468996892562</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.924266566366259</v>
+        <v>-4.975365824357516</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-2.771243572171272</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.10726333211817</v>
+        <v>-15.16082394304367</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.1772625853671</v>
+        <v>-1.184646644169834</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.360996421206679</v>
+        <v>-4.412724109734338</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-2.545774037482352</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.88421295195756</v>
+        <v>-15.93495871777209</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9374770588208872</v>
+        <v>-0.9469951629868221</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.836963907663751</v>
+        <v>-3.882381106221699</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-2.38761369128479</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.64848922264616</v>
+        <v>-16.69994197281414</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8462368003168982</v>
+        <v>-0.8543802126844519</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.367591758485029</v>
+        <v>-3.409186004613193</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-2.296958717257091</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.37732462954221</v>
+        <v>-17.42398559687012</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6641097754856469</v>
+        <v>-0.6754608020494234</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.794279817045845</v>
+        <v>-2.842040537812462</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.26814346084367</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.14415389928495</v>
+        <v>-18.19585540320692</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4801367359537122</v>
+        <v>-0.4889216711605104</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.512323983046433</v>
+        <v>-2.55940390406528</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.293211556728988</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.01171534709193</v>
+        <v>-19.06426785069861</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3175957961736831</v>
+        <v>-0.3251107780048338</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.946500838832715</v>
+        <v>-1.998005958212066</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.362203536843885</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.84276236227333</v>
+        <v>-19.892172713198</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.07597734722962846</v>
+        <v>-0.0820259911425059</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.676157877453914</v>
+        <v>-1.725555136075746</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-2.463057394315612</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.58222871907686</v>
+        <v>-20.63719020640643</v>
       </c>
       <c r="F18" t="n">
-        <v>0.03082965935317281</v>
+        <v>0.02975609052015128</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.236269594274759</v>
+        <v>-1.287211744631916</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-2.58484851820601</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.30310400584514</v>
+        <v>-21.36478184453251</v>
       </c>
       <c r="F19" t="n">
-        <v>0.306736849439708</v>
+        <v>0.3022330972621542</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.8536208591196317</v>
+        <v>-0.9066315933257806</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-2.720123681477572</v>
       </c>
       <c r="E20" t="n">
-        <v>-21.94134067707644</v>
+        <v>-21.99793870226123</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4567877323087304</v>
+        <v>0.4514984419606731</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.6235890981905047</v>
+        <v>-0.67619397100856</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.862109105906609</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.55986034022811</v>
+        <v>-22.61607868863048</v>
       </c>
       <c r="F21" t="n">
-        <v>0.643392324711852</v>
+        <v>0.6384303419348379</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.2839878547789722</v>
+        <v>-0.3421307716990777</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-3.005406265050019</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.01365264902518</v>
+        <v>-23.07118022771172</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8117593392564493</v>
+        <v>0.8091408786881041</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.16814715923538</v>
+        <v>-0.2233443080160971</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-3.146227548912995</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.45553096223627</v>
+        <v>-23.51195878748411</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8935207705030286</v>
+        <v>0.8931149091149351</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.02320227447463067</v>
+        <v>-0.08398983656876481</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-3.280930293782416</v>
       </c>
       <c r="E24" t="n">
-        <v>-23.94553658069355</v>
+        <v>-23.9968845924388</v>
       </c>
       <c r="F24" t="n">
-        <v>1.037850317030217</v>
+        <v>1.038596578292195</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.06910388823772227</v>
+        <v>-0.1147829328525045</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-3.406500038450015</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.19597924175293</v>
+        <v>-24.24449931608437</v>
       </c>
       <c r="F25" t="n">
-        <v>1.092589235211473</v>
+        <v>1.092392850668848</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1255524704130609</v>
+        <v>0.07285595147511349</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-3.522299881785506</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.46272181985026</v>
+        <v>-24.51454115449781</v>
       </c>
       <c r="F26" t="n">
-        <v>1.22946926142172</v>
+        <v>1.228853923188158</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02297427764813717</v>
+        <v>-0.02858321094258009</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.627471821021553</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.51471135443475</v>
+        <v>-24.5643966437191</v>
       </c>
       <c r="F27" t="n">
-        <v>1.19791681157316</v>
+        <v>1.196869427345822</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.1776128941899479</v>
+        <v>-0.2281622754618523</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.720136740370093</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.59672153943533</v>
+        <v>-24.64851468947719</v>
       </c>
       <c r="F28" t="n">
-        <v>1.126223361211868</v>
+        <v>1.126040068972084</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.5321262705382064</v>
+        <v>-0.5799655451218735</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.798205432742725</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.40730210192123</v>
+        <v>-24.46225049694796</v>
       </c>
       <c r="F29" t="n">
-        <v>1.142536370552659</v>
+        <v>1.138242095220572</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.5838539590658661</v>
+        <v>-0.6262599279702168</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.859245676778293</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.1477733826897</v>
+        <v>-24.20112451676973</v>
       </c>
       <c r="F30" t="n">
-        <v>1.03006039683939</v>
+        <v>1.026054152169822</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9007138724413204</v>
+        <v>-0.9430674721343042</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.899838041385173</v>
       </c>
       <c r="E31" t="n">
-        <v>-23.9241830347587</v>
+        <v>-23.98085961376053</v>
       </c>
       <c r="F31" t="n">
-        <v>0.961653114491371</v>
+        <v>0.9562459934177382</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.119041114629944</v>
+        <v>-1.153408409589475</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-3.918787427089008</v>
       </c>
       <c r="E32" t="n">
-        <v>-23.57874262427976</v>
+        <v>-23.63420161911731</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9377072925938541</v>
+        <v>0.9342509246436385</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.365163315751553</v>
+        <v>-1.399766272162235</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.916596364615264</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.24473179418164</v>
+        <v>-23.30241648050228</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9021616903785679</v>
+        <v>0.8969378615447191</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.645770642558267</v>
+        <v>-1.676472092722115</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.892728346432471</v>
       </c>
       <c r="E34" t="n">
-        <v>-22.79224871566874</v>
+        <v>-22.85535361536586</v>
       </c>
       <c r="F34" t="n">
-        <v>0.83725005288929</v>
+        <v>0.8361502994505849</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.887022507022754</v>
+        <v>-1.911348005702681</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.846540657557946</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.43349343319977</v>
+        <v>-22.49141378097156</v>
       </c>
       <c r="F35" t="n">
-        <v>0.756522913567207</v>
+        <v>0.7539830068159122</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.169868617615404</v>
+        <v>-2.181887351624108</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.777638886956527</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.86028623018332</v>
+        <v>-21.92235683795594</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8045062034821331</v>
+        <v>0.8011938508631764</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.471515275088772</v>
+        <v>-2.474421766319636</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.685154538924992</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.41089293514107</v>
+        <v>-21.4758831264474</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8228485197633914</v>
+        <v>0.8181483830432117</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.654035069005276</v>
+        <v>-2.658159144400419</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.569968581396516</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.92803571403537</v>
+        <v>-20.99085258306997</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9181081152397902</v>
+        <v>0.9139054860275961</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.785049743542428</v>
+        <v>-2.790312849284802</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.436898240211769</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.43785989564115</v>
+        <v>-20.50597914732665</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9378513079251131</v>
+        <v>0.9326274790912644</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.845431444248469</v>
+        <v>-2.843572337244944</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.291693411644907</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.77938252421653</v>
+        <v>-19.84963582126523</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9571362700109756</v>
+        <v>0.9538893789062275</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.966391230203176</v>
+        <v>-2.96035567859314</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.141639418239056</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.24331818436206</v>
+        <v>-19.31349292759371</v>
       </c>
       <c r="F41" t="n">
-        <v>1.029706904662663</v>
+        <v>1.026512382769282</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.122883526070328</v>
+        <v>-3.11463537528004</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.995402431391647</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.48511674219202</v>
+        <v>-18.55283013248943</v>
       </c>
       <c r="F42" t="n">
-        <v>1.005499236708312</v>
+        <v>1.003836514247412</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.338173353999671</v>
+        <v>-3.329401511095714</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.861791693679992</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.9639121660629</v>
+        <v>-18.0362340469606</v>
       </c>
       <c r="F43" t="n">
-        <v>1.111337412880825</v>
+        <v>1.105210215150897</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.375080555710497</v>
+        <v>-3.369228296340245</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-2.749420339497396</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.40577420361728</v>
+        <v>-17.47335667088627</v>
       </c>
       <c r="F44" t="n">
-        <v>1.061966338864676</v>
+        <v>1.06427058416482</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.523272331575994</v>
+        <v>-3.521151378515635</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-2.668380138688829</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.75636979806199</v>
+        <v>-16.83123158571097</v>
       </c>
       <c r="F45" t="n">
-        <v>1.08088471647097</v>
+        <v>1.078501917353776</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.70118363489221</v>
+        <v>-3.695200452493541</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-2.627400556754888</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.28064788200503</v>
+        <v>-16.35581079261938</v>
       </c>
       <c r="F46" t="n">
-        <v>0.906835642493064</v>
+        <v>0.9134996246395026</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.863292528678462</v>
+        <v>-3.854154101294937</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-2.631468153731246</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.68574673317984</v>
+        <v>-15.7558952918058</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9843551676189241</v>
+        <v>0.9883483199856505</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.837553061291628</v>
+        <v>-3.837212661417744</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.682635536576356</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.04061041835094</v>
+        <v>-15.12245040341457</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9665627280570184</v>
+        <v>0.9664579896342845</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.982393207629644</v>
+        <v>-3.985587729523025</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.779148764671538</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.53467146733528</v>
+        <v>-14.61211243864409</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8854297273468419</v>
+        <v>0.8902869717011223</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.089396598755071</v>
+        <v>-4.089030014275503</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.914525840760434</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.01619009019724</v>
+        <v>-14.09208616977073</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8783598838123099</v>
+        <v>0.8849714967473815</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.165449785962658</v>
+        <v>-4.172571998708557</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.082896755063614</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.53946006682147</v>
+        <v>-13.61248893207262</v>
       </c>
       <c r="F51" t="n">
-        <v>0.989853934812449</v>
+        <v>0.9939780102075928</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.259203766612258</v>
+        <v>-4.270502423964668</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.277845597505281</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.90437864057502</v>
+        <v>-12.98721364065463</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8796036525822738</v>
+        <v>0.8873673881674173</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.364753912122254</v>
+        <v>-4.378396091683332</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.490609093679002</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.50286389702497</v>
+        <v>-12.5797157147059</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8914783712597194</v>
+        <v>0.8988755223652946</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.555456395314835</v>
+        <v>-4.571756312352785</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.712036319773782</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.87371328396582</v>
+        <v>-11.95873469861999</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8679122261446124</v>
+        <v>0.8724159783221662</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.735148251817527</v>
+        <v>-4.744456879137993</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.933046267958892</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.49182390237551</v>
+        <v>-11.57418757955281</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8288447944649019</v>
+        <v>0.8308348244968442</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.95233646365892</v>
+        <v>-4.961959306247588</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.143159138722071</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.1123173199024</v>
+        <v>-11.19544035064452</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7528177918629986</v>
+        <v>0.7564967289615236</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.154743465592005</v>
+        <v>-5.168922429569594</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.335848172088059</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.55648360275692</v>
+        <v>-10.64132172517131</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7338994142567044</v>
+        <v>0.7362560287682151</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.234606512926534</v>
+        <v>-5.247594077345526</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.507482591401541</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.32264198170085</v>
+        <v>-10.40380116701671</v>
       </c>
       <c r="F58" t="n">
-        <v>0.6506192758804848</v>
+        <v>0.656733381307571</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.378752767213938</v>
+        <v>-5.395484730245664</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.655351912682051</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.81570801566922</v>
+        <v>-9.895885278271949</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6785975270532535</v>
+        <v>0.6836642482530014</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.59456628725695</v>
+        <v>-5.612895511235367</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.778277838244804</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.684640971920699</v>
+        <v>-9.759254005815697</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6618001025073189</v>
+        <v>0.6693150843384698</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.652957957931049</v>
+        <v>-5.671889427840185</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.876929810895636</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.309153726419996</v>
+        <v>-9.381580345740424</v>
       </c>
       <c r="F61" t="n">
-        <v>0.695826997592965</v>
+        <v>0.7059080707810941</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.662528431308351</v>
+        <v>-5.682900054530077</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.95196556722592</v>
       </c>
       <c r="E62" t="n">
-        <v>-9.036689811980834</v>
+        <v>-9.107925031742665</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6568904889416717</v>
+        <v>0.6677832849059877</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.749762445142771</v>
+        <v>-5.779154665022446</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.00586958800685</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.711895963083293</v>
+        <v>-8.792452902468435</v>
       </c>
       <c r="F63" t="n">
-        <v>0.6171815344227165</v>
+        <v>0.6286896686205937</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.743648339715685</v>
+        <v>-5.772451405967482</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.044867117887233</v>
       </c>
       <c r="E64" t="n">
-        <v>-8.405405153558487</v>
+        <v>-8.489326814773952</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5138832650014978</v>
+        <v>0.5267268140892311</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.67276661213058</v>
+        <v>-5.704594000338816</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.075406042409091</v>
       </c>
       <c r="E65" t="n">
-        <v>-8.293570702684463</v>
+        <v>-8.372687488757013</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3737694399893454</v>
+        <v>0.3883935422635534</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.691305312954464</v>
+        <v>-5.724559762172449</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.10304223424479</v>
       </c>
       <c r="E66" t="n">
-        <v>-8.094554607187385</v>
+        <v>-8.175504315657777</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3296745640184121</v>
+        <v>0.3435262204249582</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.675319611184717</v>
+        <v>-5.711441274725039</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.132588890583574</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.965739439527642</v>
+        <v>-8.044960964022927</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2356718296148189</v>
+        <v>0.2517099005959333</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.62808258253177</v>
+        <v>-5.665199261088063</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.167090402164195</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.820493431801533</v>
+        <v>-7.903262970366925</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1808412653136701</v>
+        <v>0.1962116288498565</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.575647909650656</v>
+        <v>-5.614322572245115</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.206760117502132</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.751483903522795</v>
+        <v>-7.838338240574806</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1750675597604689</v>
+        <v>0.1888406623499647</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.487693819159941</v>
+        <v>-5.528502527117601</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.254426872728502</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.75964040819319</v>
+        <v>-7.847332652627071</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06916392207374673</v>
+        <v>0.08386657816500512</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.38794356380883</v>
+        <v>-5.425034057759439</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.313501964557892</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.83154333539995</v>
+        <v>-7.913632074217572</v>
       </c>
       <c r="F71" t="n">
-        <v>0.07157290579662434</v>
+        <v>0.08545074680885396</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.220074056772218</v>
+        <v>-5.255789858924446</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.384524492503915</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.843051469597827</v>
+        <v>-7.931804190561888</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.004336266079703408</v>
+        <v>0.007734837140368027</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.137566364263661</v>
+        <v>-5.169367567866213</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.467290626602329</v>
       </c>
       <c r="E73" t="n">
-        <v>-8.056023959924184</v>
+        <v>-8.139356467511771</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.04013062204898248</v>
+        <v>-0.03019356419211239</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.869318171339535</v>
+        <v>-4.901407405604606</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.561169075098755</v>
       </c>
       <c r="E74" t="n">
-        <v>-8.184865312189611</v>
+        <v>-8.270292588231873</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.09640133966272112</v>
+        <v>-0.08004905341340526</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.737243020272202</v>
+        <v>-4.770183254221985</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.661831629233943</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.526901723929704</v>
+        <v>-8.606188709939198</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.1765131407512429</v>
+        <v>-0.1651097449760995</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.494014218078616</v>
+        <v>-4.523969406980485</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.769364949379778</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.785657997293578</v>
+        <v>-8.866529151946921</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.168814866680308</v>
+        <v>-0.1547275488226107</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.206310863131685</v>
+        <v>-4.228842716322296</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.886485731805921</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.303026528690069</v>
+        <v>-9.381501791923373</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.2400500864421395</v>
+        <v>-0.2291049212664565</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.98145056182504</v>
+        <v>-4.007962475079535</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-6.01434646209811</v>
       </c>
       <c r="E78" t="n">
-        <v>-9.757106868149654</v>
+        <v>-9.835411931446016</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.1870393522359907</v>
+        <v>-0.1794065396792644</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.891126764519972</v>
+        <v>-3.913881186858891</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-6.154395016510046</v>
       </c>
       <c r="E79" t="n">
-        <v>-10.20020276552503</v>
+        <v>-10.27553587607632</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.2553157115555921</v>
+        <v>-0.246766437799945</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.743838357550553</v>
+        <v>-3.76368628865861</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-6.308211123673003</v>
       </c>
       <c r="E80" t="n">
-        <v>-10.79556214494968</v>
+        <v>-10.87281982401871</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.3078420305565971</v>
+        <v>-0.3004579717538636</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.415090633194812</v>
+        <v>-3.435148041148336</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-6.474668731595465</v>
       </c>
       <c r="E81" t="n">
-        <v>-11.47661064647343</v>
+        <v>-11.55691883210458</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.324194316805913</v>
+        <v>-0.3181325805901938</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.255050323257553</v>
+        <v>-3.277346514997012</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-6.653580618149361</v>
       </c>
       <c r="E82" t="n">
-        <v>-12.32102490285624</v>
+        <v>-12.39732684381782</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.3889357543582484</v>
+        <v>-0.3849295096886802</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.9166666640103</v>
+        <v>-2.937850010008213</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.848125685441424</v>
       </c>
       <c r="E83" t="n">
-        <v>-13.23786577855947</v>
+        <v>-13.31332981213918</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.3661944243221702</v>
+        <v>-0.3643745942271703</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.771381379375666</v>
+        <v>-2.787799127139191</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-7.059730820866282</v>
       </c>
       <c r="E84" t="n">
-        <v>-14.18523790448961</v>
+        <v>-14.26589958229749</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.4214963115256211</v>
+        <v>-0.4180923127867723</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.495277804746505</v>
+        <v>-2.514471120712475</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-7.287851969730514</v>
       </c>
       <c r="E85" t="n">
-        <v>-15.40892308189438</v>
+        <v>-15.48730669900779</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.4713125238383888</v>
+        <v>-0.4723991849742521</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.296300986157952</v>
+        <v>-2.316803532408096</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-7.531084312868575</v>
       </c>
       <c r="E86" t="n">
-        <v>-16.47309164147556</v>
+        <v>-16.54955069007124</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5668732422801473</v>
+        <v>-0.5679468111131689</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.054027922071811</v>
+        <v>-2.078248682329005</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-7.785603501018273</v>
       </c>
       <c r="E87" t="n">
-        <v>-17.64438142290774</v>
+        <v>-17.72573699276623</v>
       </c>
       <c r="F87" t="n">
         <v>-0.4979029909099345</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.99485071322721</v>
+        <v>-2.018285935313899</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.045117336637027</v>
       </c>
       <c r="E88" t="n">
-        <v>-19.02012060551631</v>
+        <v>-19.09808526893879</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.652536179773561</v>
+        <v>-0.6529813180701798</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.96481697050829</v>
+        <v>-1.988042715749512</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.309050610034133</v>
       </c>
       <c r="E89" t="n">
-        <v>-20.55189385339258</v>
+        <v>-20.6322544082351</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6357649398333099</v>
+        <v>-0.6351234169940654</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.951711575363722</v>
+        <v>-1.974610013033901</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-8.577660553341921</v>
       </c>
       <c r="E90" t="n">
-        <v>-22.18730577056395</v>
+        <v>-22.26917194023326</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6722400955503588</v>
+        <v>-0.676337986339819</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.963481555618434</v>
+        <v>-1.986301439471563</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-8.849667773081499</v>
       </c>
       <c r="E91" t="n">
-        <v>-23.89858758270312</v>
+        <v>-23.979249260511</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8170671495855325</v>
+        <v>-0.817669395516252</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.005363832409116</v>
+        <v>-2.026115132413251</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-9.124624917610287</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.63474477024157</v>
+        <v>-25.71717390893308</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8643958243583723</v>
+        <v>-0.8660978237277966</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.067342794061847</v>
+        <v>-2.090974400691163</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-9.40296929564534</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.65533223701653</v>
+        <v>-27.7423305893998</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.038196144582286</v>
+        <v>-1.039413728746566</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.261632568233062</v>
+        <v>-2.283274144830435</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-9.679655889571183</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.70865046089579</v>
+        <v>-29.79318746034482</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.065166288436242</v>
+        <v>-1.067339610707968</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.327840343703671</v>
+        <v>-2.348670197524857</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-9.957854995608228</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.90852392278534</v>
+        <v>-31.99397738343329</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.299269755549145</v>
+        <v>-1.307112044951339</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.540197495796467</v>
+        <v>-2.561158272646071</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-10.24323108220594</v>
       </c>
       <c r="E96" t="n">
-        <v>-34.17076911541287</v>
+        <v>-34.25554177631304</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.428962107499284</v>
+        <v>-1.434539428509859</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.758564014893616</v>
+        <v>-2.778137007641997</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-10.53513104713156</v>
       </c>
       <c r="E97" t="n">
-        <v>-36.385070295034</v>
+        <v>-36.46871701788979</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.605223780657442</v>
+        <v>-1.605682011256902</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.841307368853325</v>
+        <v>-2.866366036492389</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-10.83421424574423</v>
       </c>
       <c r="E98" t="n">
-        <v>-38.72080258351214</v>
+        <v>-38.80264256857577</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.8752394344652</v>
+        <v>-1.873877834969661</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.102813025813961</v>
+        <v>-3.124074925628925</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-11.1327203883703</v>
       </c>
       <c r="E99" t="n">
-        <v>-41.02908031293118</v>
+        <v>-41.10848512966625</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.891303690051998</v>
+        <v>-1.888148445067142</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.353190225359131</v>
+        <v>-3.364266313563231</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-11.42477656600282</v>
       </c>
       <c r="E100" t="n">
-        <v>-43.35981134172378</v>
+        <v>-43.44123237309648</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.228155549866768</v>
+        <v>-2.222303290496517</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.407955328146071</v>
+        <v>-3.432817611242509</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-11.69080116631626</v>
       </c>
       <c r="E101" t="n">
-        <v>-45.69886907512372</v>
+        <v>-45.77479133930289</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.268178719653925</v>
+        <v>-2.264709259400867</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.671765230406852</v>
+        <v>-3.692516530410987</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-11.93798726746322</v>
       </c>
       <c r="E102" t="n">
-        <v>-48.23831759581911</v>
+        <v>-48.30997176927188</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.53718626614287</v>
+        <v>-2.529304699832151</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.70224411142239</v>
+        <v>-3.731819623541849</v>
       </c>
     </row>
   </sheetData>
